--- a/my_package/traj_excel_10/tested_robot_traj_6_.xlsx
+++ b/my_package/traj_excel_10/tested_robot_traj_6_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.9489610112883385</v>
+        <v>0.9489610112883385</v>
       </c>
       <c r="C1" t="n">
-        <v>1.394964302721964</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7249361535492151</v>
+        <v>-0.7249361535492151</v>
       </c>
       <c r="E1" t="n">
-        <v>0.90076854960269</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796383038867</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="G1" t="n">
         <v>-0.6218353262550272</v>
@@ -449,19 +449,19 @@
         <v>0.2202947803889398</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9943554056026752</v>
+        <v>0.9943554056026752</v>
       </c>
       <c r="C2" t="n">
-        <v>1.393881277062689</v>
+        <v>0.1769150497322079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721918637663874</v>
+        <v>-0.721918637663874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8988340247709597</v>
+        <v>0.6719623020239368</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796377815036</v>
+        <v>1.570796377815036</v>
       </c>
       <c r="G2" t="n">
         <v>-0.5764409309963349</v>
@@ -472,19 +472,19 @@
         <v>0.4405895607778795</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.19775238786194</v>
+        <v>1.19775238786194</v>
       </c>
       <c r="C3" t="n">
-        <v>1.389028604081073</v>
+        <v>0.1817677227138239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708398165934528</v>
+        <v>-0.708398165934528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8901660709669087</v>
+        <v>0.6806302558279879</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796354408809</v>
+        <v>1.570796354408809</v>
       </c>
       <c r="G3" t="n">
         <v>-0.3730439445057301</v>
@@ -495,19 +495,19 @@
         <v>0.6608843411668193</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.483912630473311</v>
+        <v>1.483912630473311</v>
       </c>
       <c r="C4" t="n">
-        <v>1.382201353930612</v>
+        <v>0.1885949728642848</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6893761459059412</v>
+        <v>-0.6893761459059412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.877971082939261</v>
+        <v>0.6928252438556356</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796321478471</v>
+        <v>1.570796321478471</v>
       </c>
       <c r="G4" t="n">
         <v>-0.08688369594126644</v>
@@ -518,19 +518,19 @@
         <v>0.8811791215557591</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.687309612732577</v>
+        <v>1.687309612732577</v>
       </c>
       <c r="C5" t="n">
-        <v>1.377348680948996</v>
+        <v>0.1934476458459009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6758556741765951</v>
+        <v>-0.6758556741765951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8693031291352099</v>
+        <v>0.7014931976596867</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796298072244</v>
+        <v>1.570796298072244</v>
       </c>
       <c r="G5" t="n">
         <v>0.116513290549339</v>
@@ -541,19 +541,19 @@
         <v>1.101473901944699</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.732704007046913</v>
+        <v>1.732704007046913</v>
       </c>
       <c r="C6" t="n">
-        <v>1.37626565528972</v>
+        <v>0.1945306715051764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.672838158291254</v>
+        <v>-0.672838158291254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8673686043034796</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796292848413</v>
+        <v>1.570796292848413</v>
       </c>
       <c r="G6" t="n">
         <v>0.1619076858080303</v>
